--- a/InstanceGuineaGolfV1.xlsx
+++ b/InstanceGuineaGolfV1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/PhD Years/Teaching/ST7-OSTP-2023/Projects/Data/V1/instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/PhD Years/PhD/Code/XWSRP/data/teaching/V1/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98130A22-4A74-704E-876A-0E77AA12F4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29664B1-7BB4-044C-8F2E-2F1050E03D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2C5F-E1A7-F54F-815D-9D441051269D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA72F52-AB34-1E4A-8B1D-E76BD6529E91}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
